--- a/uploads/batches/batch 2023.xlsx
+++ b/uploads/batches/batch 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\EduTrackr\uploads\batches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2163D192-CAE4-4473-A8CB-0AE6518EBC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21C2A7-5E8B-4244-9116-027D5AC65580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B86E0FEB-D8FB-4FF1-BCDF-158AD0201F84}"/>
   </bookViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBE5CCD-E596-4A8E-BCC5-4B096AE7E625}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -842,7 +842,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D56" si="0">C3&amp;"@rajagiri.edu.in"</f>
+        <f t="shared" ref="D4:D59" si="0">C3&amp;"@rajagiri.edu.in"</f>
         <v>u2304002@rajagiri.edu.in</v>
       </c>
     </row>
@@ -1636,6 +1636,10 @@
       <c r="C57" t="s">
         <v>59</v>
       </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>u2304055@rajagiri.edu.in</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
@@ -1647,6 +1651,10 @@
       <c r="C58" t="s">
         <v>60</v>
       </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>u2304056@rajagiri.edu.in</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
@@ -1657,6 +1665,10 @@
       </c>
       <c r="C59" t="s">
         <v>61</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>u2304057@rajagiri.edu.in</v>
       </c>
     </row>
   </sheetData>
